--- a/biology/Mycologie/Leccinum_versipelle/Leccinum_versipelle.xlsx
+++ b/biology/Mycologie/Leccinum_versipelle/Leccinum_versipelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet roux, Bolet orangé des bouleaux, Bolet changeant, Bolet rude changeant
 Leccinum versipelle, le Bolet roux, est une espèce de champignons (Fungi) basidiomycètes du genre Leccinum dans la famille des Boletaceae. Il fait partie d'un complexe d'espèces comprenant d'autres Leccinum à chapeau orangé. Comestible, il est caractérisé par ses mèches noires et son habitat sous bouleaux.
@@ -512,12 +524,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Leccinum versipelle (Fr.) Snell[1].
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus versipellis Fr., in Fries &amp; Hök 1835[2].
-Synonymes
-Leccinum versipelle a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Leccinum versipelle (Fr.) Snell.
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus versipellis Fr., in Fries &amp; Hök 1835.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Leccinum_versipelle</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leccinum_versipelle</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leccinum versipelle a pour synonymes :
 Boletus atrostipitatus (A.H.Sm., Thiers &amp; Watling) Hlaváček
 Boletus aurantiacus f. percandidus (Vassilkov) Vassilkov
 Boletus floccopus Rostk.
@@ -562,49 +611,6 @@
 Suillus versipellis (Fr.) Kuntze
 Trachypus rufescens (Secr. ex Konrad) Romagn.
 Trachypus rufescens (Secrétan ex Konrad) Konrad &amp; Maubl.
-Noms vulgaires et vernaculaires
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Bolet roux[3].
-On le connait aussi sous le nom de : Bolet orangé des bouleaux[4], Bolet changeant[5] et Bolet rude changeant[6].
-On lui confère également de façon populaire le nom vernaculaire vague et inexact de "Bolet orangé", au même titre que Leccinum aurantiacum, Leccinum albostipitatum, Leccinum vulpinum et Leccinum piceinum, cela pour la simple raison que la couleur de leurs chapeaux est orangée. Ce nom vernaculaire est souvent donné de manière arbitraire à n'importe laquelle de ces espèces par les cueilleurs, rendant le nom de "Bolet orangé" ambigu quant à l'espèce réellement désignée et devenant un terme passe-partout et approximatif pour désigner n'importe quel Bolet rude (Leccinum) à chapeau orangé. De la même façon, ces Bolets rudes à chapeau orangé sont également connus sous les noms régionaux populaires, ambigus et vagues, de "Pible", "Pible orange" ou "Pible rouge".
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Leccinum_versipelle</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Leccinum_versipelle</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description du sporophore</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes, terminés par des pores, se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond, recouvert d'une cuticule, devenant convexe à mesure qu’ils vieillissent. Les caractéristiques macroscopiques de Leccinum versipelle, le Bolet roux, sont les suivantes :
-Son chapeau mesure 3 à 18 cm, de texture velouté à méchuleux. Sa couleur est ocre orangé à brun orangé plus au moins vif. La cuticule déborde souvent sur les tubes au bord du chapeau[7].
-L'hyménophore présente des tubes gris même chez les jeunes sujets, brun-gris. Les pores sont concolores[7].
-Son stipe mesure 3 à 20 cm x 2,5 à 6 cm. Il est couvert de mèches brun-noires ou noires même chez les jeunes exemplaires, très denses, rendant parfois le fond blanc à peine visible[7].
-La chair est blanche, devenant gris-rose et enfin gris-violet sombre à la coupe. Sa saveur est douce et son odeur est faible[7].
-Réactions chimiques
-Sa chair devient vert jaune au Fe et rosée au Formol[6].
-Caractéristiques microscopiques
-Ses spores mesurent 15 à 17,6 μm x 4,5 à 5,5 μm, de forme allongée et fusoïde[7].
 </t>
         </is>
       </c>
@@ -630,12 +636,164 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Bolet roux.
+On le connait aussi sous le nom de : Bolet orangé des bouleaux, Bolet changeant et Bolet rude changeant.
+On lui confère également de façon populaire le nom vernaculaire vague et inexact de "Bolet orangé", au même titre que Leccinum aurantiacum, Leccinum albostipitatum, Leccinum vulpinum et Leccinum piceinum, cela pour la simple raison que la couleur de leurs chapeaux est orangée. Ce nom vernaculaire est souvent donné de manière arbitraire à n'importe laquelle de ces espèces par les cueilleurs, rendant le nom de "Bolet orangé" ambigu quant à l'espèce réellement désignée et devenant un terme passe-partout et approximatif pour désigner n'importe quel Bolet rude (Leccinum) à chapeau orangé. De la même façon, ces Bolets rudes à chapeau orangé sont également connus sous les noms régionaux populaires, ambigus et vagues, de "Pible", "Pible orange" ou "Pible rouge".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Leccinum_versipelle</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leccinum_versipelle</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes, terminés par des pores, se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond, recouvert d'une cuticule, devenant convexe à mesure qu’ils vieillissent. Les caractéristiques macroscopiques de Leccinum versipelle, le Bolet roux, sont les suivantes :
+Son chapeau mesure 3 à 18 cm, de texture velouté à méchuleux. Sa couleur est ocre orangé à brun orangé plus au moins vif. La cuticule déborde souvent sur les tubes au bord du chapeau.
+L'hyménophore présente des tubes gris même chez les jeunes sujets, brun-gris. Les pores sont concolores.
+Son stipe mesure 3 à 20 cm x 2,5 à 6 cm. Il est couvert de mèches brun-noires ou noires même chez les jeunes exemplaires, très denses, rendant parfois le fond blanc à peine visible.
+La chair est blanche, devenant gris-rose et enfin gris-violet sombre à la coupe. Sa saveur est douce et son odeur est faible.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Leccinum_versipelle</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leccinum_versipelle</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Réactions chimiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa chair devient vert jaune au Fe et rosée au Formol.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Leccinum_versipelle</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leccinum_versipelle</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 15 à 17,6 μm x 4,5 à 5,5 μm, de forme allongée et fusoïde.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Leccinum_versipelle</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leccinum_versipelle</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Variétés et formes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leccinum versipelle f. flavescens, qui a un chapeau pâle citrin beige[6] avec des mouchetures de poils agglutinés[7].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leccinum versipelle f. flavescens, qui a un chapeau pâle citrin beige avec des mouchetures de poils agglutinés.
 </t>
         </is>
       </c>
